--- a/schedule(27.03.2023-01.04.2023).xlsx
+++ b/schedule(27.03.2023-01.04.2023).xlsx
@@ -903,7 +903,7 @@
       <top style="thin">
         <color rgb="00000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
       <diagonal>
@@ -938,6 +938,45 @@
         <color rgb="00000000"/>
       </right>
       <top/>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
@@ -953,7 +992,7 @@
       <top style="thin">
         <color rgb="00000000"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
       <diagonal>
@@ -961,16 +1000,23 @@
       </diagonal>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thick">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color rgb="00000000"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="00000000"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -984,9 +1030,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="00000000"/>
@@ -995,53 +1039,9 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="thin">
         <color rgb="00000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="00000000"/>
@@ -1363,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1405,7 +1405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1428,7 +1428,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="56" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1443,20 +1443,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1468,7 +1468,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="46" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1486,14 +1486,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1552,7 +1552,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1592,7 +1592,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2500,7 +2500,7 @@
       <c r="P5" s="1" t="inlineStr"/>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>«24_» марта 2023г.</t>
+          <t>«27» марта 2023г.</t>
         </is>
       </c>
       <c r="R5" s="4" t="n"/>
@@ -5323,7 +5323,7 @@
       <c r="Q26" s="52" t="n"/>
       <c r="R26" s="39" t="inlineStr">
         <is>
-          <t>Антонович Д.А. (доц.)</t>
+          <t>Галузо И.В. (доц.)*</t>
         </is>
       </c>
       <c r="S26" s="18" t="n"/>
@@ -5576,31 +5576,23 @@
           <t>Иностранный язык (пз)(фак-в)</t>
         </is>
       </c>
-      <c r="E28" s="45" t="inlineStr">
-        <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
-        </is>
-      </c>
+      <c r="E28" s="47" t="n"/>
       <c r="F28" s="45" t="inlineStr"/>
       <c r="G28" s="45" t="inlineStr">
         <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
+          <t>Иностранный язык (профессиональный) (пз)</t>
         </is>
       </c>
       <c r="H28" s="45" t="inlineStr">
         <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
-        </is>
-      </c>
-      <c r="I28" s="45" t="inlineStr">
-        <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
-        </is>
-      </c>
+          <t>Иностранный язык (пз)</t>
+        </is>
+      </c>
+      <c r="I28" s="47" t="n"/>
       <c r="J28" s="45" t="inlineStr"/>
       <c r="K28" s="45" t="inlineStr">
         <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
+          <t>Иностранный язык (пз)</t>
         </is>
       </c>
       <c r="L28" s="45" t="inlineStr">
@@ -5629,16 +5621,12 @@
           <t>Иностранный язык (пз)(фак-в)</t>
         </is>
       </c>
-      <c r="R28" s="45" t="inlineStr">
-        <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
-        </is>
-      </c>
-      <c r="S28" s="45" t="inlineStr">
-        <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
-        </is>
-      </c>
+      <c r="R28" s="48" t="inlineStr">
+        <is>
+          <t>Иностранный язык (пз)</t>
+        </is>
+      </c>
+      <c r="S28" s="49" t="n"/>
       <c r="T28" s="2" t="inlineStr"/>
       <c r="U28" s="2" t="inlineStr"/>
       <c r="V28" s="2" t="inlineStr"/>
@@ -5733,74 +5721,30 @@
       <c r="A29" s="17" t="n"/>
       <c r="B29" s="18" t="n"/>
       <c r="C29" s="19" t="n"/>
-      <c r="D29" s="50" t="inlineStr">
+      <c r="D29" s="51" t="inlineStr"/>
+      <c r="E29" s="52" t="n"/>
+      <c r="F29" s="51" t="inlineStr"/>
+      <c r="G29" s="50" t="inlineStr"/>
+      <c r="H29" s="51" t="inlineStr"/>
+      <c r="I29" s="52" t="n"/>
+      <c r="J29" s="51" t="inlineStr"/>
+      <c r="K29" s="50" t="inlineStr"/>
+      <c r="L29" s="50" t="inlineStr">
         <is>
           <t>Гончарова С.А. (пр.)</t>
         </is>
       </c>
-      <c r="E29" s="50" t="inlineStr">
-        <is>
-          <t>Гончарова С.А. (пр.)</t>
-        </is>
-      </c>
-      <c r="F29" s="51" t="inlineStr"/>
-      <c r="G29" s="50" t="inlineStr">
-        <is>
-          <t>Гончарова С.А. (пр.)</t>
-        </is>
-      </c>
-      <c r="H29" s="50" t="inlineStr">
-        <is>
-          <t>Гончарова С.А. (пр.)</t>
-        </is>
-      </c>
-      <c r="I29" s="50" t="inlineStr">
-        <is>
-          <t>Гончарова С.А. (пр.)</t>
-        </is>
-      </c>
-      <c r="J29" s="51" t="inlineStr"/>
-      <c r="K29" s="50" t="inlineStr">
-        <is>
-          <t>Гончарова С.А. (пр.)</t>
-        </is>
-      </c>
-      <c r="L29" s="50" t="inlineStr">
-        <is>
-          <t>Гончарова С.А. (пр.)</t>
-        </is>
-      </c>
-      <c r="M29" s="50" t="inlineStr">
+      <c r="M29" s="50" t="inlineStr"/>
+      <c r="N29" s="51" t="inlineStr"/>
+      <c r="O29" s="50" t="inlineStr"/>
+      <c r="P29" s="50" t="inlineStr">
         <is>
           <t>Кажекина Л.В. (ст.пр.)</t>
         </is>
       </c>
-      <c r="N29" s="51" t="inlineStr"/>
-      <c r="O29" s="50" t="inlineStr">
-        <is>
-          <t>Кажекина Л.В. (ст.пр.)</t>
-        </is>
-      </c>
-      <c r="P29" s="50" t="inlineStr">
-        <is>
-          <t>Кажекина Л.В. (ст.пр.)</t>
-        </is>
-      </c>
-      <c r="Q29" s="50" t="inlineStr">
-        <is>
-          <t>Кажекина Л.В. (ст.пр.)</t>
-        </is>
-      </c>
-      <c r="R29" s="50" t="inlineStr">
-        <is>
-          <t>Кажекина Л.В. (ст.пр.)</t>
-        </is>
-      </c>
-      <c r="S29" s="50" t="inlineStr">
-        <is>
-          <t>Кажекина Л.В. (ст.пр.)</t>
-        </is>
-      </c>
+      <c r="Q29" s="50" t="inlineStr"/>
+      <c r="R29" s="39" t="inlineStr"/>
+      <c r="S29" s="18" t="n"/>
       <c r="T29" s="2" t="inlineStr"/>
       <c r="U29" s="2" t="inlineStr"/>
       <c r="V29" s="2" t="inlineStr"/>
@@ -5895,74 +5839,30 @@
       <c r="A30" s="17" t="n"/>
       <c r="B30" s="18" t="n"/>
       <c r="C30" s="40" t="n"/>
-      <c r="D30" s="53" t="inlineStr">
+      <c r="D30" s="56" t="inlineStr"/>
+      <c r="E30" s="54" t="n"/>
+      <c r="F30" s="57" t="inlineStr"/>
+      <c r="G30" s="56" t="inlineStr"/>
+      <c r="H30" s="56" t="inlineStr"/>
+      <c r="I30" s="54" t="n"/>
+      <c r="J30" s="57" t="inlineStr"/>
+      <c r="K30" s="56" t="inlineStr"/>
+      <c r="L30" s="53" t="inlineStr">
         <is>
           <t>ауд. 517</t>
         </is>
       </c>
-      <c r="E30" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 517</t>
-        </is>
-      </c>
-      <c r="F30" s="57" t="inlineStr"/>
-      <c r="G30" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 517</t>
-        </is>
-      </c>
-      <c r="H30" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 517</t>
-        </is>
-      </c>
-      <c r="I30" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 517</t>
-        </is>
-      </c>
-      <c r="J30" s="57" t="inlineStr"/>
-      <c r="K30" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 517</t>
-        </is>
-      </c>
-      <c r="L30" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 517</t>
-        </is>
-      </c>
-      <c r="M30" s="53" t="inlineStr">
+      <c r="M30" s="56" t="inlineStr"/>
+      <c r="N30" s="57" t="inlineStr"/>
+      <c r="O30" s="56" t="inlineStr"/>
+      <c r="P30" s="53" t="inlineStr">
         <is>
           <t>ауд. 219</t>
         </is>
       </c>
-      <c r="N30" s="57" t="inlineStr"/>
-      <c r="O30" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 219</t>
-        </is>
-      </c>
-      <c r="P30" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 219</t>
-        </is>
-      </c>
-      <c r="Q30" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 219</t>
-        </is>
-      </c>
-      <c r="R30" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 219</t>
-        </is>
-      </c>
-      <c r="S30" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 219</t>
-        </is>
-      </c>
+      <c r="Q30" s="56" t="inlineStr"/>
+      <c r="R30" s="41" t="inlineStr"/>
+      <c r="S30" s="43" t="n"/>
       <c r="T30" s="2" t="inlineStr"/>
       <c r="U30" s="2" t="inlineStr"/>
       <c r="V30" s="2" t="inlineStr"/>
@@ -8197,17 +8097,17 @@
       </c>
       <c r="F49" s="45" t="inlineStr">
         <is>
-          <t>Управление научно-исследовательской деятельностью (пз)(фак-в)</t>
-        </is>
-      </c>
-      <c r="G49" s="79" t="n"/>
-      <c r="H49" s="79" t="n"/>
-      <c r="I49" s="47" t="n"/>
-      <c r="J49" s="45" t="inlineStr">
-        <is>
-          <t>Математический анализ (пз)</t>
-        </is>
-      </c>
+          <t>Теория множеств и логика высказываний (пз)</t>
+        </is>
+      </c>
+      <c r="G49" s="47" t="n"/>
+      <c r="H49" s="45" t="inlineStr">
+        <is>
+          <t>Математический анализ (лк)</t>
+        </is>
+      </c>
+      <c r="I49" s="79" t="n"/>
+      <c r="J49" s="79" t="n"/>
       <c r="K49" s="47" t="n"/>
       <c r="L49" s="45" t="inlineStr">
         <is>
@@ -8223,7 +8123,7 @@
       <c r="O49" s="47" t="n"/>
       <c r="P49" s="45" t="inlineStr">
         <is>
-          <t>Управление научно-исследовательской деятельностью (пз)(фак-в)</t>
+          <t>Философия (пз)</t>
         </is>
       </c>
       <c r="Q49" s="47" t="n"/>
@@ -8339,17 +8239,17 @@
       </c>
       <c r="F50" s="51" t="inlineStr">
         <is>
-          <t>Павлыш Э.В. (доц.)</t>
-        </is>
-      </c>
-      <c r="G50" s="4" t="n"/>
-      <c r="H50" s="4" t="n"/>
-      <c r="I50" s="52" t="n"/>
-      <c r="J50" s="51" t="inlineStr">
+          <t>Караулова Т.Б. (ст.пр.)</t>
+        </is>
+      </c>
+      <c r="G50" s="52" t="n"/>
+      <c r="H50" s="51" t="inlineStr">
         <is>
           <t>Кавитова Т.В. (ст.пр.)</t>
         </is>
       </c>
+      <c r="I50" s="4" t="n"/>
+      <c r="J50" s="4" t="n"/>
       <c r="K50" s="52" t="n"/>
       <c r="L50" s="51" t="inlineStr">
         <is>
@@ -8365,7 +8265,7 @@
       <c r="O50" s="52" t="n"/>
       <c r="P50" s="51" t="inlineStr">
         <is>
-          <t>Павлыш Э.В. (доц.)</t>
+          <t>Рудковский Э.И. (доц.)</t>
         </is>
       </c>
       <c r="Q50" s="52" t="n"/>
@@ -8481,17 +8381,17 @@
       </c>
       <c r="F51" s="53" t="inlineStr">
         <is>
+          <t>ауд. 317</t>
+        </is>
+      </c>
+      <c r="G51" s="54" t="n"/>
+      <c r="H51" s="53" t="inlineStr">
+        <is>
           <t>ауд. 119</t>
         </is>
       </c>
-      <c r="G51" s="42" t="n"/>
-      <c r="H51" s="42" t="n"/>
-      <c r="I51" s="54" t="n"/>
-      <c r="J51" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 317</t>
-        </is>
-      </c>
+      <c r="I51" s="42" t="n"/>
+      <c r="J51" s="42" t="n"/>
       <c r="K51" s="54" t="n"/>
       <c r="L51" s="53" t="inlineStr">
         <is>
@@ -8507,7 +8407,7 @@
       <c r="O51" s="54" t="n"/>
       <c r="P51" s="53" t="inlineStr">
         <is>
-          <t>ауд. 119</t>
+          <t>ауд. 619</t>
         </is>
       </c>
       <c r="Q51" s="54" t="n"/>
@@ -9251,7 +9151,7 @@
       <c r="Q56" s="52" t="n"/>
       <c r="R56" s="39" t="inlineStr">
         <is>
-          <t>Антонович Д.А. (доц.)</t>
+          <t>Галузо И.В. (доц.)*</t>
         </is>
       </c>
       <c r="S56" s="18" t="n"/>
@@ -11407,7 +11307,7 @@
       <c r="Q74" s="52" t="n"/>
       <c r="R74" s="39" t="inlineStr">
         <is>
-          <t>Антонович Д.А. (доц.)</t>
+          <t>Галузо И.В. (доц.)*</t>
         </is>
       </c>
       <c r="S74" s="18" t="n"/>
@@ -15573,7 +15473,7 @@
       </c>
       <c r="P106" s="45" t="inlineStr">
         <is>
-          <t>Алгоритмизация и программирование (лк)</t>
+          <t>Основы менеджмента (пз)</t>
         </is>
       </c>
       <c r="Q106" s="47" t="n"/>
@@ -15727,7 +15627,7 @@
       </c>
       <c r="P107" s="51" t="inlineStr">
         <is>
-          <t>Корчевская Е.А. (доц.)</t>
+          <t>Салахова Ю.Ш. (ст.пр.)</t>
         </is>
       </c>
       <c r="Q107" s="52" t="n"/>
@@ -16450,35 +16350,31 @@
       </c>
       <c r="M112" s="45" t="inlineStr">
         <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
+          <t>Салахова Ю.Ш. (ст.пр.)</t>
         </is>
       </c>
       <c r="N112" s="45" t="inlineStr"/>
       <c r="O112" s="45" t="inlineStr">
         <is>
+          <t>Салахова Ю.Ш. (ст.пр.)</t>
+        </is>
+      </c>
+      <c r="P112" s="45" t="inlineStr">
+        <is>
+          <t>Салахова Ю.Ш. (ст.пр.)</t>
+        </is>
+      </c>
+      <c r="Q112" s="45" t="inlineStr">
+        <is>
           <t>Иностранный язык (пз)(фак-в)</t>
         </is>
       </c>
-      <c r="P112" s="45" t="inlineStr">
-        <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
-        </is>
-      </c>
-      <c r="Q112" s="45" t="inlineStr">
-        <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
-        </is>
-      </c>
-      <c r="R112" s="45" t="inlineStr">
-        <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
-        </is>
-      </c>
-      <c r="S112" s="45" t="inlineStr">
-        <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
-        </is>
-      </c>
+      <c r="R112" s="48" t="inlineStr">
+        <is>
+          <t>Иностранный язык (пз)</t>
+        </is>
+      </c>
+      <c r="S112" s="49" t="n"/>
       <c r="T112" s="2" t="inlineStr"/>
       <c r="U112" s="2" t="inlineStr"/>
       <c r="V112" s="2" t="inlineStr"/>
@@ -16626,21 +16522,9 @@
           <t>Кажекина Л.В. (ст.пр.)</t>
         </is>
       </c>
-      <c r="Q113" s="50" t="inlineStr">
-        <is>
-          <t>Кажекина Л.В. (ст.пр.)</t>
-        </is>
-      </c>
-      <c r="R113" s="50" t="inlineStr">
-        <is>
-          <t>Кажекина Л.В. (ст.пр.)</t>
-        </is>
-      </c>
-      <c r="S113" s="50" t="inlineStr">
-        <is>
-          <t>Кажекина Л.В. (ст.пр.)</t>
-        </is>
-      </c>
+      <c r="Q113" s="50" t="inlineStr"/>
+      <c r="R113" s="39" t="inlineStr"/>
+      <c r="S113" s="18" t="n"/>
       <c r="T113" s="2" t="inlineStr"/>
       <c r="U113" s="2" t="inlineStr"/>
       <c r="V113" s="2" t="inlineStr"/>
@@ -16788,21 +16672,9 @@
           <t>ауд. 219</t>
         </is>
       </c>
-      <c r="Q114" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 219</t>
-        </is>
-      </c>
-      <c r="R114" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 219</t>
-        </is>
-      </c>
-      <c r="S114" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 219</t>
-        </is>
-      </c>
+      <c r="Q114" s="56" t="inlineStr"/>
+      <c r="R114" s="41" t="inlineStr"/>
+      <c r="S114" s="43" t="n"/>
       <c r="T114" s="2" t="inlineStr"/>
       <c r="U114" s="2" t="inlineStr"/>
       <c r="V114" s="2" t="inlineStr"/>
@@ -18021,7 +17893,11 @@
       <c r="A125" s="17" t="n"/>
       <c r="B125" s="18" t="n"/>
       <c r="C125" s="19" t="n"/>
-      <c r="D125" s="39" t="inlineStr"/>
+      <c r="D125" s="39" t="inlineStr">
+        <is>
+          <t>актовый зал</t>
+        </is>
+      </c>
       <c r="E125" s="4" t="n"/>
       <c r="F125" s="4" t="n"/>
       <c r="G125" s="4" t="n"/>
@@ -18726,7 +18602,7 @@
           <t>Иностранный язык (пз)</t>
         </is>
       </c>
-      <c r="S130" s="45" t="inlineStr">
+      <c r="S130" s="48" t="inlineStr">
         <is>
           <t>Иностранный язык (пз)</t>
         </is>
@@ -18872,11 +18748,7 @@
           <t>Кажекина Л.В. (ст.пр.)</t>
         </is>
       </c>
-      <c r="S131" s="50" t="inlineStr">
-        <is>
-          <t>Кажекина Л.В. (ст.пр.)</t>
-        </is>
-      </c>
+      <c r="S131" s="78" t="inlineStr"/>
       <c r="T131" s="2" t="inlineStr"/>
       <c r="U131" s="2" t="inlineStr"/>
       <c r="V131" s="2" t="inlineStr"/>
@@ -19018,11 +18890,7 @@
           <t>ауд. 219</t>
         </is>
       </c>
-      <c r="S132" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 219</t>
-        </is>
-      </c>
+      <c r="S132" s="41" t="inlineStr"/>
       <c r="T132" s="2" t="inlineStr"/>
       <c r="U132" s="2" t="inlineStr"/>
       <c r="V132" s="2" t="inlineStr"/>
@@ -19180,7 +19048,7 @@
           <t>Иностранный язык (пз)</t>
         </is>
       </c>
-      <c r="S133" s="45" t="inlineStr">
+      <c r="S133" s="48" t="inlineStr">
         <is>
           <t>Иностранный язык (пз)</t>
         </is>
@@ -19334,11 +19202,7 @@
           <t>Кажекина Л.В. (ст.пр.)</t>
         </is>
       </c>
-      <c r="S134" s="50" t="inlineStr">
-        <is>
-          <t>Кажекина Л.В. (ст.пр.)</t>
-        </is>
-      </c>
+      <c r="S134" s="78" t="inlineStr"/>
       <c r="T134" s="2" t="inlineStr"/>
       <c r="U134" s="2" t="inlineStr"/>
       <c r="V134" s="2" t="inlineStr"/>
@@ -19488,11 +19352,7 @@
           <t>ауд. 219</t>
         </is>
       </c>
-      <c r="S135" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 219</t>
-        </is>
-      </c>
+      <c r="S135" s="41" t="inlineStr"/>
       <c r="T135" s="2" t="inlineStr"/>
       <c r="U135" s="2" t="inlineStr"/>
       <c r="V135" s="2" t="inlineStr"/>
@@ -19611,12 +19471,8 @@
       <c r="M136" s="47" t="n"/>
       <c r="N136" s="58" t="inlineStr"/>
       <c r="O136" s="59" t="inlineStr"/>
-      <c r="P136" s="45" t="inlineStr">
-        <is>
-          <t>Философия (пз)</t>
-        </is>
-      </c>
-      <c r="Q136" s="47" t="n"/>
+      <c r="P136" s="58" t="inlineStr"/>
+      <c r="Q136" s="59" t="inlineStr"/>
       <c r="R136" s="58" t="inlineStr"/>
       <c r="S136" s="60" t="inlineStr"/>
       <c r="T136" s="2" t="inlineStr"/>
@@ -19733,12 +19589,8 @@
       <c r="M137" s="52" t="n"/>
       <c r="N137" s="61" t="inlineStr"/>
       <c r="O137" s="62" t="inlineStr"/>
-      <c r="P137" s="51" t="inlineStr">
-        <is>
-          <t>Рудковский Э.И. (доц.)</t>
-        </is>
-      </c>
-      <c r="Q137" s="52" t="n"/>
+      <c r="P137" s="61" t="inlineStr"/>
+      <c r="Q137" s="62" t="inlineStr"/>
       <c r="R137" s="61" t="inlineStr"/>
       <c r="S137" s="63" t="inlineStr"/>
       <c r="T137" s="2" t="inlineStr"/>
@@ -19855,12 +19707,8 @@
       <c r="M138" s="54" t="n"/>
       <c r="N138" s="64" t="inlineStr"/>
       <c r="O138" s="65" t="inlineStr"/>
-      <c r="P138" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 509a</t>
-        </is>
-      </c>
-      <c r="Q138" s="54" t="n"/>
+      <c r="P138" s="64" t="inlineStr"/>
+      <c r="Q138" s="65" t="inlineStr"/>
       <c r="R138" s="64" t="inlineStr"/>
       <c r="S138" s="66" t="inlineStr"/>
       <c r="T138" s="2" t="inlineStr"/>
@@ -24778,13 +24626,12 @@
     <row r="327" ht="14.1" customHeight="1"/>
     <row r="328" ht="14.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="645">
+  <mergeCells count="678">
     <mergeCell ref="N101:O101"/>
     <mergeCell ref="K98"/>
     <mergeCell ref="P28"/>
     <mergeCell ref="O56"/>
     <mergeCell ref="A12:B15"/>
-    <mergeCell ref="P138:Q138"/>
     <mergeCell ref="N100:O100"/>
     <mergeCell ref="E134"/>
     <mergeCell ref="D133"/>
@@ -24808,6 +24655,7 @@
     <mergeCell ref="I22"/>
     <mergeCell ref="K22"/>
     <mergeCell ref="H87:I87"/>
+    <mergeCell ref="Q113"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="D126:S126"/>
@@ -24852,6 +24700,7 @@
     <mergeCell ref="R135"/>
     <mergeCell ref="D78"/>
     <mergeCell ref="D134"/>
+    <mergeCell ref="M30"/>
     <mergeCell ref="D129:E129"/>
     <mergeCell ref="O55"/>
     <mergeCell ref="P14:Q14"/>
@@ -24880,11 +24729,12 @@
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="L50:M50"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="R22:S22"/>
-    <mergeCell ref="F50:I50"/>
     <mergeCell ref="I56"/>
     <mergeCell ref="K56"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="I43"/>
     <mergeCell ref="P108:Q108"/>
     <mergeCell ref="O134"/>
@@ -24904,13 +24754,13 @@
     <mergeCell ref="F127:G127"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="H127:I127"/>
-    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="D82:S82"/>
     <mergeCell ref="J127:K127"/>
     <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L13:M13"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="K25"/>
+    <mergeCell ref="F51:G51"/>
     <mergeCell ref="S47"/>
     <mergeCell ref="P113"/>
     <mergeCell ref="Q77"/>
@@ -24930,7 +24780,6 @@
     <mergeCell ref="D76"/>
     <mergeCell ref="F138"/>
     <mergeCell ref="H73:K73"/>
-    <mergeCell ref="P137:Q137"/>
     <mergeCell ref="J27"/>
     <mergeCell ref="P106:Q106"/>
     <mergeCell ref="J25"/>
@@ -24940,12 +24789,14 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="D100:E100"/>
     <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="R28:S28"/>
     <mergeCell ref="K57"/>
     <mergeCell ref="N53:O53"/>
     <mergeCell ref="S106"/>
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="F133:G133"/>
     <mergeCell ref="N130:O130"/>
+    <mergeCell ref="R30:S30"/>
     <mergeCell ref="P130:Q130"/>
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="P110:S110"/>
@@ -24956,16 +24807,19 @@
     <mergeCell ref="M52"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="S130"/>
     <mergeCell ref="H128:I128"/>
     <mergeCell ref="R54:S54"/>
     <mergeCell ref="J128:K128"/>
     <mergeCell ref="C118:C120"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="E19"/>
+    <mergeCell ref="R112:S112"/>
     <mergeCell ref="J15"/>
+    <mergeCell ref="A97:A120"/>
     <mergeCell ref="L15"/>
-    <mergeCell ref="A97:A120"/>
     <mergeCell ref="R104"/>
+    <mergeCell ref="S132"/>
     <mergeCell ref="R56:S56"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="D24:E24"/>
@@ -24974,16 +24828,19 @@
     <mergeCell ref="L73"/>
     <mergeCell ref="N73"/>
     <mergeCell ref="J129:K129"/>
+    <mergeCell ref="M28"/>
     <mergeCell ref="C115:C117"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="J137:M137"/>
+    <mergeCell ref="S133"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="M57"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="J47:M47"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="C169:C171"/>
+    <mergeCell ref="M29"/>
     <mergeCell ref="M134"/>
     <mergeCell ref="R130"/>
     <mergeCell ref="N51:O51"/>
@@ -24993,11 +24850,11 @@
     <mergeCell ref="R132"/>
     <mergeCell ref="L135"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J49:K49"/>
     <mergeCell ref="E111"/>
     <mergeCell ref="H85:I85"/>
     <mergeCell ref="J101:K101"/>
     <mergeCell ref="L28"/>
+    <mergeCell ref="H50:K50"/>
     <mergeCell ref="J103:K103"/>
     <mergeCell ref="J100:K100"/>
     <mergeCell ref="D103:E103"/>
@@ -25029,6 +24886,7 @@
     <mergeCell ref="N74"/>
     <mergeCell ref="O111"/>
     <mergeCell ref="D52:E52"/>
+    <mergeCell ref="S135"/>
     <mergeCell ref="D50"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="L24:M24"/>
@@ -25053,7 +24911,6 @@
     <mergeCell ref="R133"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="O26"/>
-    <mergeCell ref="J50:K50"/>
     <mergeCell ref="L30"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="H86:I86"/>
@@ -25066,14 +24923,15 @@
     <mergeCell ref="H80"/>
     <mergeCell ref="C76:C78"/>
     <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K28"/>
     <mergeCell ref="A10:S10"/>
     <mergeCell ref="F109:K109"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="D104:E104"/>
     <mergeCell ref="E130"/>
+    <mergeCell ref="K30"/>
     <mergeCell ref="F111:K111"/>
-    <mergeCell ref="P136:Q136"/>
     <mergeCell ref="I46"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="E132"/>
@@ -25090,6 +24948,7 @@
     <mergeCell ref="Q78"/>
     <mergeCell ref="P77"/>
     <mergeCell ref="H76:I76"/>
+    <mergeCell ref="Q114"/>
     <mergeCell ref="J76:K76"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="C46:C48"/>
@@ -25120,6 +24979,7 @@
     <mergeCell ref="I101"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="I100"/>
+    <mergeCell ref="K29"/>
     <mergeCell ref="F104"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="F13:G13"/>
@@ -25154,6 +25014,7 @@
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="D21"/>
     <mergeCell ref="M54"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="R15"/>
     <mergeCell ref="P80"/>
     <mergeCell ref="J55"/>
@@ -25170,6 +25031,7 @@
     <mergeCell ref="F105"/>
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="Q30"/>
     <mergeCell ref="D128:E128"/>
     <mergeCell ref="N54:O54"/>
     <mergeCell ref="F128:G128"/>
@@ -25189,13 +25051,16 @@
     <mergeCell ref="G72"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="R74:S74"/>
+    <mergeCell ref="Q112"/>
+    <mergeCell ref="F50:G50"/>
     <mergeCell ref="P107:Q107"/>
     <mergeCell ref="P101:Q101"/>
     <mergeCell ref="H102"/>
     <mergeCell ref="G70"/>
     <mergeCell ref="L53"/>
+    <mergeCell ref="R113:S113"/>
+    <mergeCell ref="R76:S76"/>
     <mergeCell ref="I57"/>
-    <mergeCell ref="R76:S76"/>
     <mergeCell ref="H25"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="H130:K130"/>
@@ -25206,19 +25071,24 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A7:S7"/>
     <mergeCell ref="H132:K132"/>
+    <mergeCell ref="S131"/>
     <mergeCell ref="D135"/>
     <mergeCell ref="L132"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="J86"/>
+    <mergeCell ref="F49:G49"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="K27"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="P54:Q54"/>
     <mergeCell ref="C70:C72"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="H103:I103"/>
     <mergeCell ref="P100:Q100"/>
     <mergeCell ref="H78:I78"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="F110:K110"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="O57"/>
@@ -25246,7 +25116,7 @@
     <mergeCell ref="N128:O128"/>
     <mergeCell ref="P57:Q57"/>
     <mergeCell ref="C85:C87"/>
-    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="H51:K51"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="N107"/>
@@ -25298,9 +25168,11 @@
     <mergeCell ref="J24"/>
     <mergeCell ref="H60"/>
     <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="G28"/>
     <mergeCell ref="P111:S111"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="J26"/>
+    <mergeCell ref="G30"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="I48"/>
     <mergeCell ref="I23"/>
@@ -25324,6 +25196,7 @@
     <mergeCell ref="I81"/>
     <mergeCell ref="Q134"/>
     <mergeCell ref="F76:G76"/>
+    <mergeCell ref="S134"/>
     <mergeCell ref="D109"/>
     <mergeCell ref="O15"/>
     <mergeCell ref="H55"/>
@@ -25337,13 +25210,14 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="F15"/>
     <mergeCell ref="C79:C81"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L22:M22"/>
     <mergeCell ref="H79"/>
     <mergeCell ref="C133:C135"/>
     <mergeCell ref="R70"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="O25"/>
-    <mergeCell ref="J51:K51"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="E49"/>
@@ -25355,6 +25229,7 @@
     <mergeCell ref="P55:Q55"/>
     <mergeCell ref="H47"/>
     <mergeCell ref="M135"/>
+    <mergeCell ref="G29"/>
     <mergeCell ref="O135"/>
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="K87"/>
@@ -25362,8 +25237,9 @@
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="S46"/>
+    <mergeCell ref="R114:S114"/>
+    <mergeCell ref="F101:G101"/>
     <mergeCell ref="K24"/>
-    <mergeCell ref="F101:G101"/>
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="I26"/>
     <mergeCell ref="S48"/>
@@ -25404,7 +25280,9 @@
     <mergeCell ref="E50"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P79"/>
+    <mergeCell ref="O28"/>
     <mergeCell ref="L23:M23"/>
+    <mergeCell ref="Q28"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="C151:C153"/>
@@ -25412,9 +25290,12 @@
     <mergeCell ref="B124:B147"/>
     <mergeCell ref="J104:K104"/>
     <mergeCell ref="L104:M104"/>
+    <mergeCell ref="O30"/>
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="D49"/>
+    <mergeCell ref="O29"/>
     <mergeCell ref="G103"/>
+    <mergeCell ref="Q29"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="J105:K105"/>
     <mergeCell ref="C100:C102"/>
